--- a/data/outputs/OR/43.xlsx
+++ b/data/outputs/OR/43.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ126"/>
+  <dimension ref="A1:BR126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,11 @@
       <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 68</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
         </is>
       </c>
     </row>
@@ -833,6 +838,7 @@
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -954,6 +960,7 @@
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1079,6 +1086,7 @@
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1200,6 +1208,11 @@
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4513743</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1321,6 +1334,7 @@
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1442,6 +1456,7 @@
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1567,6 +1582,11 @@
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4865600</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1692,6 +1712,11 @@
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4408808</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1813,6 +1838,7 @@
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1934,6 +1960,7 @@
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2063,6 +2090,7 @@
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2192,6 +2220,7 @@
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2317,6 +2346,7 @@
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2446,6 +2476,7 @@
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2575,6 +2606,7 @@
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2696,6 +2728,7 @@
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2821,6 +2854,11 @@
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>3762619</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2942,6 +2980,7 @@
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3071,6 +3110,11 @@
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>3093493</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3200,6 +3244,7 @@
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3329,6 +3374,7 @@
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3458,6 +3504,7 @@
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3579,6 +3626,7 @@
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3700,6 +3748,11 @@
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>3935060</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3829,6 +3882,11 @@
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>3914166</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3950,6 +4008,7 @@
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4079,6 +4138,7 @@
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4208,6 +4268,11 @@
       <c r="BO29" t="inlineStr"/>
       <c r="BP29" t="inlineStr"/>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4944061</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4349,6 +4414,7 @@
       <c r="BO30" t="inlineStr"/>
       <c r="BP30" t="inlineStr"/>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4474,6 +4540,11 @@
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4544838</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4595,6 +4666,11 @@
       <c r="BO32" t="inlineStr"/>
       <c r="BP32" t="inlineStr"/>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4506210</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4724,6 +4800,7 @@
       <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4845,6 +4922,7 @@
       <c r="BO34" t="inlineStr"/>
       <c r="BP34" t="inlineStr"/>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4974,6 +5052,11 @@
       <c r="BO35" t="inlineStr"/>
       <c r="BP35" t="inlineStr"/>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4864063</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5095,6 +5178,7 @@
       <c r="BO36" t="inlineStr"/>
       <c r="BP36" t="inlineStr"/>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5224,6 +5308,7 @@
       <c r="BO37" t="inlineStr"/>
       <c r="BP37" t="inlineStr"/>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5345,6 +5430,7 @@
       <c r="BO38" t="inlineStr"/>
       <c r="BP38" t="inlineStr"/>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5474,6 +5560,7 @@
       <c r="BO39" t="inlineStr"/>
       <c r="BP39" t="inlineStr"/>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5603,6 +5690,7 @@
       <c r="BO40" t="inlineStr"/>
       <c r="BP40" t="inlineStr"/>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5732,6 +5820,11 @@
       <c r="BO41" t="inlineStr"/>
       <c r="BP41" t="inlineStr"/>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>2956548</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5853,6 +5946,11 @@
       <c r="BO42" t="inlineStr"/>
       <c r="BP42" t="inlineStr"/>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>4858935</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5986,6 +6084,11 @@
       <c r="BO43" t="inlineStr"/>
       <c r="BP43" t="inlineStr"/>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>3942580</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6107,6 +6210,11 @@
       <c r="BO44" t="inlineStr"/>
       <c r="BP44" t="inlineStr"/>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>4224240</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6228,6 +6336,7 @@
       <c r="BO45" t="inlineStr"/>
       <c r="BP45" t="inlineStr"/>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6357,6 +6466,11 @@
       <c r="BO46" t="inlineStr"/>
       <c r="BP46" t="inlineStr"/>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>3720885</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6478,6 +6592,11 @@
       <c r="BO47" t="inlineStr"/>
       <c r="BP47" t="inlineStr"/>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>4494426</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6603,6 +6722,7 @@
       <c r="BO48" t="inlineStr"/>
       <c r="BP48" t="inlineStr"/>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6732,6 +6852,11 @@
       <c r="BO49" t="inlineStr"/>
       <c r="BP49" t="inlineStr"/>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>4248108</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6853,6 +6978,7 @@
       <c r="BO50" t="inlineStr"/>
       <c r="BP50" t="inlineStr"/>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6974,6 +7100,7 @@
       <c r="BO51" t="inlineStr"/>
       <c r="BP51" t="inlineStr"/>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7095,6 +7222,7 @@
       <c r="BO52" t="inlineStr"/>
       <c r="BP52" t="inlineStr"/>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7220,6 +7348,11 @@
       <c r="BO53" t="inlineStr"/>
       <c r="BP53" t="inlineStr"/>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>4741708</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7341,6 +7474,11 @@
       <c r="BO54" t="inlineStr"/>
       <c r="BP54" t="inlineStr"/>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>3866697</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7466,6 +7604,7 @@
       <c r="BO55" t="inlineStr"/>
       <c r="BP55" t="inlineStr"/>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7587,6 +7726,7 @@
       <c r="BO56" t="inlineStr"/>
       <c r="BP56" t="inlineStr"/>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7708,6 +7848,7 @@
       <c r="BO57" t="inlineStr"/>
       <c r="BP57" t="inlineStr"/>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7837,6 +7978,7 @@
       <c r="BO58" t="inlineStr"/>
       <c r="BP58" t="inlineStr"/>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7958,6 +8100,7 @@
       <c r="BO59" t="inlineStr"/>
       <c r="BP59" t="inlineStr"/>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8079,6 +8222,7 @@
       <c r="BO60" t="inlineStr"/>
       <c r="BP60" t="inlineStr"/>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8228,6 +8372,7 @@
       <c r="BO61" t="inlineStr"/>
       <c r="BP61" t="inlineStr"/>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8349,6 +8494,11 @@
       <c r="BO62" t="inlineStr"/>
       <c r="BP62" t="inlineStr"/>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>4583008</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8470,6 +8620,7 @@
       <c r="BO63" t="inlineStr"/>
       <c r="BP63" t="inlineStr"/>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8595,6 +8746,7 @@
       <c r="BO64" t="inlineStr"/>
       <c r="BP64" t="inlineStr"/>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8720,6 +8872,7 @@
       <c r="BO65" t="inlineStr"/>
       <c r="BP65" t="inlineStr"/>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8845,6 +8998,7 @@
       <c r="BO66" t="inlineStr"/>
       <c r="BP66" t="inlineStr"/>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8903,7 +9057,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>YU, Bin/0000-0002-8332-1939; </t>
+          <t>YU, Bin/0000-0002-8332-1939;</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr"/>
@@ -8978,6 +9132,7 @@
       <c r="BO67" t="inlineStr"/>
       <c r="BP67" t="inlineStr"/>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9103,6 +9258,7 @@
       <c r="BO68" t="inlineStr"/>
       <c r="BP68" t="inlineStr"/>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9232,6 +9388,7 @@
       <c r="BO69" t="inlineStr"/>
       <c r="BP69" t="inlineStr"/>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9353,6 +9510,7 @@
       <c r="BO70" t="inlineStr"/>
       <c r="BP70" t="inlineStr"/>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9474,6 +9632,7 @@
       <c r="BO71" t="inlineStr"/>
       <c r="BP71" t="inlineStr"/>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9615,6 +9774,7 @@
       <c r="BO72" t="inlineStr"/>
       <c r="BP72" t="inlineStr"/>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9760,6 +9920,7 @@
       <c r="BO73" t="inlineStr"/>
       <c r="BP73" t="inlineStr"/>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9881,6 +10042,11 @@
       <c r="BO74" t="inlineStr"/>
       <c r="BP74" t="inlineStr"/>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>4506052</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10006,6 +10172,7 @@
       <c r="BO75" t="inlineStr"/>
       <c r="BP75" t="inlineStr"/>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10127,6 +10294,7 @@
       <c r="BO76" t="inlineStr"/>
       <c r="BP76" t="inlineStr"/>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10248,6 +10416,7 @@
       <c r="BO77" t="inlineStr"/>
       <c r="BP77" t="inlineStr"/>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10373,6 +10542,7 @@
       <c r="BO78" t="inlineStr"/>
       <c r="BP78" t="inlineStr"/>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10498,6 +10668,11 @@
       <c r="BO79" t="inlineStr"/>
       <c r="BP79" t="inlineStr"/>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>4823836</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10619,6 +10794,11 @@
       <c r="BO80" t="inlineStr"/>
       <c r="BP80" t="inlineStr"/>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>4544331</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10740,6 +10920,11 @@
       <c r="BO81" t="inlineStr"/>
       <c r="BP81" t="inlineStr"/>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>4503407</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10861,6 +11046,11 @@
       <c r="BO82" t="inlineStr"/>
       <c r="BP82" t="inlineStr"/>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>4081890</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10990,6 +11180,7 @@
       <c r="BO83" t="inlineStr"/>
       <c r="BP83" t="inlineStr"/>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11119,6 +11310,7 @@
       <c r="BO84" t="inlineStr"/>
       <c r="BP84" t="inlineStr"/>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11240,6 +11432,7 @@
       <c r="BO85" t="inlineStr"/>
       <c r="BP85" t="inlineStr"/>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11361,6 +11554,11 @@
       <c r="BO86" t="inlineStr"/>
       <c r="BP86" t="inlineStr"/>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>3097811</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11486,6 +11684,11 @@
       <c r="BO87" t="inlineStr"/>
       <c r="BP87" t="inlineStr"/>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>4958884</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11635,6 +11838,7 @@
       <c r="BO88" t="inlineStr"/>
       <c r="BP88" t="inlineStr"/>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11756,6 +11960,7 @@
       <c r="BO89" t="inlineStr"/>
       <c r="BP89" t="inlineStr"/>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11877,6 +12082,7 @@
       <c r="BO90" t="inlineStr"/>
       <c r="BP90" t="inlineStr"/>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11998,6 +12204,7 @@
       <c r="BO91" t="inlineStr"/>
       <c r="BP91" t="inlineStr"/>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12127,6 +12334,7 @@
       <c r="BO92" t="inlineStr"/>
       <c r="BP92" t="inlineStr"/>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12256,6 +12464,7 @@
       <c r="BO93" t="inlineStr"/>
       <c r="BP93" t="inlineStr"/>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12397,6 +12606,7 @@
       <c r="BO94" t="inlineStr"/>
       <c r="BP94" t="inlineStr"/>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12518,6 +12728,7 @@
       <c r="BO95" t="inlineStr"/>
       <c r="BP95" t="inlineStr"/>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12651,6 +12862,7 @@
       <c r="BO96" t="inlineStr"/>
       <c r="BP96" t="inlineStr"/>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12776,6 +12988,7 @@
       <c r="BO97" t="inlineStr"/>
       <c r="BP97" t="inlineStr"/>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12897,6 +13110,11 @@
       <c r="BO98" t="inlineStr"/>
       <c r="BP98" t="inlineStr"/>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>4209668</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13018,6 +13236,7 @@
       <c r="BO99" t="inlineStr"/>
       <c r="BP99" t="inlineStr"/>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13151,6 +13370,7 @@
       <c r="BO100" t="inlineStr"/>
       <c r="BP100" t="inlineStr"/>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13272,6 +13492,11 @@
       <c r="BO101" t="inlineStr"/>
       <c r="BP101" t="inlineStr"/>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>3046967</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13393,6 +13618,7 @@
       <c r="BO102" t="inlineStr"/>
       <c r="BP102" t="inlineStr"/>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13518,6 +13744,7 @@
       <c r="BO103" t="inlineStr"/>
       <c r="BP103" t="inlineStr"/>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13647,6 +13874,7 @@
       <c r="BO104" t="inlineStr"/>
       <c r="BP104" t="inlineStr"/>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13796,6 +14024,11 @@
       <c r="BO105" t="inlineStr"/>
       <c r="BP105" t="inlineStr"/>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>2572184</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13925,6 +14158,7 @@
       <c r="BO106" t="inlineStr"/>
       <c r="BP106" t="inlineStr"/>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14046,6 +14280,7 @@
       <c r="BO107" t="inlineStr"/>
       <c r="BP107" t="inlineStr"/>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14171,6 +14406,7 @@
       <c r="BO108" t="inlineStr"/>
       <c r="BP108" t="inlineStr"/>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14296,6 +14532,7 @@
       <c r="BO109" t="inlineStr"/>
       <c r="BP109" t="inlineStr"/>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14417,6 +14654,7 @@
       <c r="BO110" t="inlineStr"/>
       <c r="BP110" t="inlineStr"/>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14546,6 +14784,7 @@
       <c r="BO111" t="inlineStr"/>
       <c r="BP111" t="inlineStr"/>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14671,6 +14910,11 @@
       <c r="BO112" t="inlineStr"/>
       <c r="BP112" t="inlineStr"/>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr">
+        <is>
+          <t>4767898</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14792,6 +15036,7 @@
       <c r="BO113" t="inlineStr"/>
       <c r="BP113" t="inlineStr"/>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14925,6 +15170,7 @@
       <c r="BO114" t="inlineStr"/>
       <c r="BP114" t="inlineStr"/>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15046,6 +15292,11 @@
       <c r="BO115" t="inlineStr"/>
       <c r="BP115" t="inlineStr"/>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>3972744</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15175,6 +15426,11 @@
       <c r="BO116" t="inlineStr"/>
       <c r="BP116" t="inlineStr"/>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr">
+        <is>
+          <t>3455867</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15296,6 +15552,11 @@
       <c r="BO117" t="inlineStr"/>
       <c r="BP117" t="inlineStr"/>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>4716448</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15421,6 +15682,7 @@
       <c r="BO118" t="inlineStr"/>
       <c r="BP118" t="inlineStr"/>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15538,6 +15800,7 @@
       <c r="BO119" t="inlineStr"/>
       <c r="BP119" t="inlineStr"/>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15659,6 +15922,7 @@
       <c r="BO120" t="inlineStr"/>
       <c r="BP120" t="inlineStr"/>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15808,6 +16072,7 @@
       <c r="BO121" t="inlineStr"/>
       <c r="BP121" t="inlineStr"/>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15933,6 +16198,7 @@
       <c r="BO122" t="inlineStr"/>
       <c r="BP122" t="inlineStr"/>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16062,6 +16328,11 @@
       <c r="BO123" t="inlineStr"/>
       <c r="BP123" t="inlineStr"/>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr">
+        <is>
+          <t>3935291</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16183,6 +16454,7 @@
       <c r="BO124" t="inlineStr"/>
       <c r="BP124" t="inlineStr"/>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16312,6 +16584,7 @@
       <c r="BO125" t="inlineStr"/>
       <c r="BP125" t="inlineStr"/>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16429,6 +16702,7 @@
       <c r="BO126" t="inlineStr"/>
       <c r="BP126" t="inlineStr"/>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
